--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIM\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308F661-8C72-417A-8165-567B850378B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A90B3-E2B5-4F96-8B68-AE7AAB368FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <author>Alessandro Chiodi</author>
   </authors>
   <commentList>
-    <comment ref="D129" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
+    <comment ref="E129" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H131" authorId="0" shapeId="0" xr:uid="{08155CC9-5232-4BA3-8E7D-2782073BC52D}">
+    <comment ref="I131" authorId="0" shapeId="0" xr:uid="{08155CC9-5232-4BA3-8E7D-2782073BC52D}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H132" authorId="0" shapeId="0" xr:uid="{18A1B250-FDBD-4085-B842-EA94AB62C50C}">
+    <comment ref="I132" authorId="0" shapeId="0" xr:uid="{18A1B250-FDBD-4085-B842-EA94AB62C50C}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H133" authorId="0" shapeId="0" xr:uid="{D04A0774-4BB1-4E99-9BCD-45E2F1A6AC6C}">
+    <comment ref="I133" authorId="0" shapeId="0" xr:uid="{D04A0774-4BB1-4E99-9BCD-45E2F1A6AC6C}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H135" authorId="0" shapeId="0" xr:uid="{E2B5B631-C1AB-456E-AC2B-816F7B2C69C1}">
+    <comment ref="I135" authorId="0" shapeId="0" xr:uid="{E2B5B631-C1AB-456E-AC2B-816F7B2C69C1}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H136" authorId="0" shapeId="0" xr:uid="{C376D617-8F0A-44E5-83D3-958CBFADFD31}">
+    <comment ref="I136" authorId="0" shapeId="0" xr:uid="{C376D617-8F0A-44E5-83D3-958CBFADFD31}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H137" authorId="0" shapeId="0" xr:uid="{5B2CC33F-B70C-4EB5-AF3E-09C8B0B59273}">
+    <comment ref="I137" authorId="0" shapeId="0" xr:uid="{5B2CC33F-B70C-4EB5-AF3E-09C8B0B59273}">
       <text>
         <r>
           <rPr>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="302">
   <si>
     <t>IE</t>
   </si>
@@ -1335,9 +1335,6 @@
     <t>*Apartment Space Heat (dual techs)</t>
   </si>
   <si>
-    <t>*Space Heating (dual techs)</t>
-  </si>
-  <si>
     <t>R-RSDCK_ELC_X0</t>
   </si>
   <si>
@@ -1464,25 +1461,28 @@
     <t>New Technologies - Transformation</t>
   </si>
   <si>
-    <t>RSDSH_Apt-AB,RSDSH_Apt-C,RSDSH_Apt-D,RSDSH_Apt-E,RSDSH_Apt-F,RSDSH_Apt-G</t>
-  </si>
-  <si>
-    <t>RSDSH_Apt-AB,RSDSH_Apt-C,RSDSH_Apt-D,RSDSH_Apt-E,RSDSH_Apt-F,RSDSH_Apt-G,RSDWH_Apt</t>
-  </si>
-  <si>
-    <t>RSDSH_Att-AB,RSDSH_Att-C,RSDSH_Att-D,RSDSH_Att-E,RSDSH_Att-F,RSDSH_Att-G</t>
-  </si>
-  <si>
-    <t>RSDSH_Att-AB,RSDSH_Att-C,RSDSH_Att-D,RSDSH_Att-E,RSDSH_Att-F,RSDSH_Att-G,RSDWH_Att</t>
-  </si>
-  <si>
-    <t>RSDSH_Det-AB,RSDSH_Det-C,RSDSH_Det-D,RSDSH_Det-E,RSDSH_Det-F,RSDSH_Det-G</t>
-  </si>
-  <si>
-    <t>RSDSH_Det-AB,RSDSH_Det-C,RSDSH_Det-D,RSDSH_Det-E,RSDSH_Det-F,RSDSH_Det-G,RSDWH_Det</t>
-  </si>
-  <si>
     <t>*1</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt,RSDWH_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Att,RSDWH_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Det,RSDWH_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt,RSDSC_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Att,RSDSC_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Det,RSDSC_Det</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2508,9 +2508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2548,9 +2548,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2583,26 +2583,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2635,26 +2618,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3269,7 +3235,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
@@ -3355,10 +3321,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
@@ -3387,10 +3353,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -3419,10 +3385,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -3479,10 +3445,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
@@ -3512,7 +3478,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
@@ -3542,7 +3508,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
@@ -3571,10 +3537,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -3604,7 +3570,7 @@
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
@@ -3661,7 +3627,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="49">
         <v>1</v>
@@ -3693,10 +3659,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>284</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>285</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
@@ -3725,10 +3691,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="57" t="s">
         <v>286</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>287</v>
       </c>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
@@ -3758,7 +3724,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -6442,7 +6408,7 @@
         <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -6483,7 +6449,7 @@
         <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -6524,7 +6490,7 @@
         <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -6606,7 +6572,7 @@
         <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -6647,7 +6613,7 @@
         <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -6688,7 +6654,7 @@
         <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -6934,7 +6900,7 @@
         <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
         <v>131</v>
@@ -6975,7 +6941,7 @@
         <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -7016,7 +6982,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D33" t="s">
         <v>131</v>
@@ -7098,7 +7064,7 @@
         <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
         <v>131</v>
@@ -7139,7 +7105,7 @@
         <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
         <v>131</v>
@@ -7180,7 +7146,7 @@
         <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
         <v>131</v>
@@ -8738,7 +8704,7 @@
         <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
         <v>131</v>
@@ -8998,10 +8964,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.12635353241295499</v>
+        <v>0.12716586319930701</v>
       </c>
       <c r="M2">
-        <v>0.12635353241295499</v>
+        <v>0.12716586319930701</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -9039,10 +9005,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.24100352965976199</v>
+        <v>0.24175608869574</v>
       </c>
       <c r="M3">
-        <v>0.24100352965976199</v>
+        <v>0.24175608869574</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -9080,10 +9046,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.29839165082681302</v>
+        <v>0.29872122806778101</v>
       </c>
       <c r="M4">
-        <v>0.29839165082681302</v>
+        <v>0.29872122806778101</v>
       </c>
     </row>
   </sheetData>
@@ -9277,10 +9243,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.20963817697789</v>
+        <v>0.21098594733224099</v>
       </c>
       <c r="M2">
-        <v>0.20963817697789</v>
+        <v>0.21098594733224099</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -9318,10 +9284,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.29754218668175703</v>
+        <v>0.29847129365993402</v>
       </c>
       <c r="M3">
-        <v>0.29754218668175703</v>
+        <v>0.29847129365993402</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -9359,10 +9325,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.49011428261671702</v>
+        <v>0.49065561985780998</v>
       </c>
       <c r="M4">
-        <v>0.49011428261671702</v>
+        <v>0.49065561985780998</v>
       </c>
     </row>
   </sheetData>
@@ -9524,7 +9490,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9551,10 +9517,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>1.2457230310998201E-2</v>
+        <v>1.21865123037202E-2</v>
       </c>
       <c r="M2">
-        <v>1.2457230310998201E-2</v>
+        <v>1.21865123037202E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -9565,7 +9531,7 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
         <v>131</v>
@@ -9592,10 +9558,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>1.06776419273959E-2</v>
+        <v>1.04455975746106E-2</v>
       </c>
       <c r="M3">
-        <v>1.06776419273959E-2</v>
+        <v>1.04455975746106E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -9606,7 +9572,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9633,10 +9599,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.06776273367935E-2</v>
+        <v>1.0445583301088201E-2</v>
       </c>
       <c r="M4">
-        <v>1.06776273367935E-2</v>
+        <v>1.0445583301088201E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9829,10 +9795,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.956481782990526</v>
+        <v>0.93569571451266098</v>
       </c>
       <c r="M2">
-        <v>0.956481782990526</v>
+        <v>0.93569571451266098</v>
       </c>
     </row>
   </sheetData>
@@ -9903,8 +9869,8 @@
         <v>238</v>
       </c>
       <c r="D5" s="32" t="str">
-        <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J3),COLUMN(AF!J3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J17),COLUMN(AF!J17),4,1)</f>
-        <v>A3,J3,J17</v>
+        <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!K3),COLUMN(AF!K3),4,1)&amp;","&amp;ADDRESS(ROW(AF!K17),COLUMN(AF!K17),4,1)</f>
+        <v>A3,K3,K17</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>239</v>
@@ -11734,45 +11700,48 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
-    <col min="10" max="10" width="13.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="13" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="3" max="3" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="21"/>
+    <col min="11" max="11" width="13.140625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="13" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
@@ -11783,289 +11752,300 @@
         <v>76</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>248</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-      <c r="J5" s="27" t="s">
+      <c r="I5" s="28"/>
+      <c r="K5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="30" t="str">
-        <f>"R-SH*"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <f>"R-SH*"&amp;G6&amp;"_"&amp;H6&amp;"*"</f>
         <v>R-SH*Apt_COA*</v>
       </c>
       <c r="C6" s="30"/>
-      <c r="D6" s="53">
+      <c r="D6" s="30"/>
+      <c r="E6" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.41882471081785599</v>
-      </c>
-      <c r="F6" s="30" t="s">
+        <v>0.40654789002485697</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="30" t="str">
-        <f t="shared" ref="H6:H12" si="0">"R-S*_"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+      <c r="I6" s="30" t="str">
+        <f t="shared" ref="I6:I12" si="0">"R-S*_"&amp;G6&amp;"_"&amp;H6&amp;"*"</f>
         <v>R-S*_Apt_COA*</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="30" t="str">
+      <c r="L6" s="30" t="str">
         <f>FillTable!R5</f>
         <v>R-RSDRF*</v>
       </c>
-      <c r="L6" s="30">
-        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+      <c r="M6" s="30">
+        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!L6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="31" t="str">
-        <f>"R-SH*"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
+        <f>"R-SH*"&amp;G7&amp;"_"&amp;H7&amp;"*"</f>
         <v>R-SH*Apt_BDL*</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="54">
+      <c r="D7" s="31"/>
+      <c r="E7" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4570753703752605E-3</v>
-      </c>
-      <c r="F7" s="31" t="s">
+        <v>9.6640000122913006E-3</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="31" t="str">
+      <c r="I7" s="31" t="str">
         <f t="shared" si="0"/>
         <v>R-S*_Apt_BDL*</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="K7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="31" t="str">
+      <c r="L7" s="31" t="str">
         <f>FillTable!R10&amp;"ELC*"</f>
         <v>R-RSDCK*ELC*</v>
       </c>
-      <c r="L7" s="31">
-        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.2457230310998201E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M7" s="31">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!L7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.21865123037202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="30" t="str">
-        <f>"R-SH*"&amp;F8&amp;"_"&amp;G8&amp;"*"</f>
+        <f>"R-SH*"&amp;G8&amp;"_"&amp;H8&amp;"*"</f>
         <v>R-SH*Apt_ETH*</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="53">
+      <c r="D8" s="30"/>
+      <c r="E8" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0352386019458902E-5</v>
-      </c>
-      <c r="F8" s="30" t="s">
+        <v>2.0797704474084602E-5</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="H8" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="30" t="str">
+      <c r="I8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>R-S*_Apt_ETH*</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="K8" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="30" t="str">
+      <c r="L8" s="30" t="str">
         <f>FillTable!R10&amp;"GAS*"</f>
         <v>R-RSDCK*GAS*</v>
       </c>
-      <c r="L8" s="30">
-        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K8,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.06776419273959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M8" s="30">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!L8,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.04455975746106E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B9" s="31" t="str">
-        <f>"R-SH*"&amp;F9&amp;"_"&amp;G9&amp;"*"</f>
+        <f>"R-SH*"&amp;G9&amp;"_"&amp;H9&amp;"*"</f>
         <v>R-SH*Apt_LPG*</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="54">
+      <c r="D9" s="31"/>
+      <c r="E9" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.8787825956958103E-2</v>
-      </c>
-      <c r="F9" s="31" t="s">
+        <v>4.7559865677763699E-2</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="31" t="str">
-        <f>"R-S*_"&amp;F9&amp;"_"&amp;G9&amp;"*"</f>
+      <c r="I9" s="31" t="str">
+        <f>"R-S*_"&amp;G9&amp;"_"&amp;H9&amp;"*"</f>
         <v>R-S*_Apt_LPG*</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="31" t="str">
+      <c r="L9" s="31" t="str">
         <f>FillTable!R10&amp;"LPG*"</f>
         <v>R-RSDCK*LPG*</v>
       </c>
-      <c r="L9" s="31">
-        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K9,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.06776273367935E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M9" s="31">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!L9,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.0445583301088201E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B10" s="30" t="str">
-        <f>"R-*_"&amp;F10&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Apt*HPN*</v>
+        <f>"R-SH_"&amp;G10&amp;"*"&amp;"HPN*"</f>
+        <v>R-SH_Apt*HPN*</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.18130269923092601</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="H10" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="30" t="str">
-        <f>"R-SH*"&amp;F10&amp;"_"&amp;G10&amp;"*X1"</f>
+      <c r="I10" s="30" t="str">
+        <f>"R-SH*"&amp;G10&amp;"_"&amp;H10&amp;"*X1"</f>
         <v>R-SH*Apt_ELC*X1</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="K10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="30" t="str">
+      <c r="L10" s="30" t="str">
         <f>FillTable!R15</f>
         <v>R-RSDCW*</v>
       </c>
-      <c r="L10" s="30">
-        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K10,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+      <c r="M10" s="30">
+        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!L10,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B11" s="31" t="str">
-        <f>"R-S*_"&amp;F11&amp;"_"&amp;G11&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Apt_ELC_N1,-R-SC*</v>
+        <f>"R-SH_"&amp;G11&amp;"_"&amp;H11&amp;"_N1"</f>
+        <v>R-SH_Apt_ELC_N1</v>
       </c>
       <c r="C11" s="31"/>
-      <c r="D11" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7227618659613701E-2</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.3931119040235E-2</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="31" t="str">
-        <f>"R-SH*"&amp;F10&amp;"_"&amp;G10&amp;"*X0"</f>
+      <c r="I11" s="31" t="str">
+        <f>"R-SH*"&amp;G10&amp;"_"&amp;H10&amp;"*X0"</f>
         <v>R-SH*Apt_ELC*X0</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="31" t="str">
+      <c r="L11" s="31" t="str">
         <f>FillTable!R20</f>
         <v>R-RSDCD*</v>
       </c>
-      <c r="L11" s="31">
-        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K11,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
+      <c r="M11" s="31">
+        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!L11,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B12" s="30" t="str">
-        <f t="shared" ref="B12:B17" si="1">"R-SH*"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
+        <f t="shared" ref="B12:B17" si="1">"R-SH*"&amp;G12&amp;"_"&amp;H12&amp;"*"</f>
         <v>R-SH*Apt_KER*</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="53">
+      <c r="D12" s="30"/>
+      <c r="E12" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.8978154557043795E-2</v>
-      </c>
-      <c r="F12" s="30" t="s">
+        <v>7.5994529972598895E-2</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="H12" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="I12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>R-S*_Apt_KER*</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="K12" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="30" t="str">
+      <c r="L12" s="30" t="str">
         <f>FillTable!R25</f>
         <v>R-RSDDW*</v>
       </c>
-      <c r="L12" s="30">
-        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K12,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
+      <c r="M12" s="30">
+        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!L12,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>244</v>
       </c>
@@ -12074,33 +12054,34 @@
         <v>R-SH*Apt_GAS*</v>
       </c>
       <c r="C13" s="31"/>
-      <c r="D13" s="54">
+      <c r="D13" s="31"/>
+      <c r="E13" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.5069945114006401E-2</v>
-      </c>
-      <c r="F13" s="31" t="s">
+        <v>2.5618485673577399E-2</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="H13" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="H13" s="31" t="str">
-        <f>"R-S*_"&amp;F12&amp;"_"&amp;G13&amp;"*"</f>
+      <c r="I13" s="31" t="str">
+        <f>"R-S*_"&amp;G12&amp;"_"&amp;H13&amp;"*"</f>
         <v>R-S*_Apt_GAS*</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="K13" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="31" t="str">
+      <c r="L13" s="31" t="str">
         <f>FillTable!R30</f>
         <v>R-RSDOE*</v>
       </c>
-      <c r="L13" s="31">
-        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K13,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
-        <v>0.956481782990526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M13" s="31">
+        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!L13,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
+        <v>0.93569571451266098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
@@ -12109,33 +12090,34 @@
         <v>R-SH*Apt_PEA*</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="53">
+      <c r="D14" s="30"/>
+      <c r="E14" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.15828050607333199</v>
-      </c>
-      <c r="F14" s="30" t="s">
+        <v>0.161743747694956</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="H14" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="30" t="str">
-        <f>"R-S*_"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
+      <c r="I14" s="30" t="str">
+        <f>"R-S*_"&amp;G14&amp;"_"&amp;H14&amp;"*"</f>
         <v>R-S*_Apt_PEA*</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="K14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="30" t="str">
+      <c r="L14" s="30" t="str">
         <f>FillTable!R35</f>
         <v>R-RSDOA*</v>
       </c>
-      <c r="L14" s="30" t="e">
-        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K14,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+      <c r="M14" s="30" t="e">
+        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!L14,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
@@ -12144,22 +12126,23 @@
         <v>R-SH*Apt_SMF*</v>
       </c>
       <c r="C15" s="31"/>
-      <c r="D15" s="54">
+      <c r="D15" s="31"/>
+      <c r="E15" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.14698298838932999</v>
-      </c>
-      <c r="F15" s="31" t="s">
+        <v>0.14274595375996399</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="31" t="str">
-        <f>"R-S*_"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
+      <c r="I15" s="31" t="str">
+        <f>"R-S*_"&amp;G15&amp;"_"&amp;H15&amp;"*"</f>
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>244</v>
       </c>
@@ -12168,22 +12151,23 @@
         <v>R-SH*Apt_WOO*</v>
       </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="53">
+      <c r="D16" s="30"/>
+      <c r="E16" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7307426022765301E-2</v>
-      </c>
-      <c r="F16" s="30" t="s">
+        <v>3.6221240391349503E-2</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="H16" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="30" t="str">
-        <f>"R-S*_"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
+      <c r="I16" s="30" t="str">
+        <f>"R-S*_"&amp;G16&amp;"_"&amp;H16&amp;"*"</f>
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
@@ -12192,25 +12176,26 @@
         <v>R-SH*Apt_HET*</v>
       </c>
       <c r="C17" s="31"/>
-      <c r="D17" s="54">
+      <c r="D17" s="31"/>
+      <c r="E17" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3488908827814098E-3</v>
-      </c>
-      <c r="F17" s="31" t="s">
+        <v>2.4002855672672599E-3</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="H17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="31" t="str">
-        <f>"R-S*_"&amp;F17&amp;"_"&amp;G17&amp;"*"</f>
+      <c r="I17" s="31" t="str">
+        <f>"R-S*_"&amp;G17&amp;"_"&amp;H17&amp;"*"</f>
         <v>R-S*_Apt_HET*</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>112</v>
       </c>
@@ -12221,269 +12206,278 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="J18" s="23" t="s">
+      <c r="I18" s="28"/>
+      <c r="K18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="L18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="M18" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="30" t="str">
-        <f>"R-SH*"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <f>"R-SH*"&amp;G19&amp;"_"&amp;H19&amp;"*"</f>
         <v>R-SH*Att_COA*</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.31784775894057798</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.30984484845142601</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="H19" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="30" t="str">
-        <f t="shared" ref="H19:H22" si="2">"R-S*_"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+      <c r="I19" s="30" t="str">
+        <f t="shared" ref="I19:I22" si="2">"R-S*_"&amp;G19&amp;"_"&amp;H19&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="K19" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="31" t="str">
-        <f>"R-SH*"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <f>"R-SH*"&amp;G20&amp;"_"&amp;H20&amp;"*"</f>
         <v>R-SH*Att_BDL*</v>
       </c>
       <c r="C20" s="31"/>
-      <c r="D20" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4658929270483999E-2</v>
-      </c>
-      <c r="F20" s="31" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.53147717385124E-2</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="H20" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="31" t="str">
+      <c r="I20" s="31" t="str">
         <f t="shared" si="2"/>
         <v>R-S*_Att_BDL*</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="K20" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="L20" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="L20" s="30">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M20" s="30">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!L20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>0.21098594733224099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="30" t="str">
-        <f>"R-SH*"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
+        <f>"R-SH*"&amp;G21&amp;"_"&amp;H21&amp;"*"</f>
         <v>R-SH*Att_ETH*</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D21" s="30"/>
+      <c r="E21" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="G21" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="H21" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="I21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>R-S*_Att_ETH*</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="K21" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="L21" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="L21" s="31">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K21,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M21" s="31">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!L21,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>0.29847129365993402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B22" s="31" t="str">
-        <f>"R-SH*"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <f>"R-SH*"&amp;G22&amp;"_"&amp;H22&amp;"*"</f>
         <v>R-SH*Att_LPG*</v>
       </c>
       <c r="C22" s="31"/>
-      <c r="D22" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.9050090196469498E-2</v>
-      </c>
-      <c r="F22" s="31" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.8109166237074001E-2</v>
+      </c>
+      <c r="G22" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="H22" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="31" t="str">
+      <c r="I22" s="31" t="str">
         <f t="shared" si="2"/>
         <v>R-S*_Att_LPG*</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="K22" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="L22" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="30">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K22,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.49011428261671702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M22" s="30">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!L22,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>0.49065561985780998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B23" s="30" t="str">
-        <f>"R-*_"&amp;F23&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Att*HPN*</v>
+        <f>"R-SH_"&amp;G23&amp;"*"&amp;"HPN*"</f>
+        <v>R-SH_Att*HPN*</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.11404303534564</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="H23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="30" t="str">
-        <f>"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*X1"</f>
+      <c r="I23" s="30" t="str">
+        <f>"R-SH*"&amp;G23&amp;"_"&amp;H23&amp;"*X1"</f>
         <v>R-SH*Att_ELC*X1</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="L23" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="L23" s="31">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M23" s="31">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!L23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.12716586319930701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B24" s="31" t="str">
-        <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Att_ELC_N1,-R-SC*</v>
+        <f>"R-SH_"&amp;G24&amp;"_"&amp;H24&amp;"_N1"</f>
+        <v>R-SH_Att_ELC_N1</v>
       </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7537381358533697E-2</v>
-      </c>
-      <c r="F24" s="31" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.5156391297092499E-2</v>
+      </c>
+      <c r="G24" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="H24" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="31" t="str">
-        <f>"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*X0"</f>
+      <c r="I24" s="31" t="str">
+        <f>"R-SH*"&amp;G23&amp;"_"&amp;H23&amp;"*X0"</f>
         <v>R-SH*Att_ELC*X0</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="K24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="L24" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="30">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K24,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M24" s="30">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!L24,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.24175608869574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B25" s="30" t="str">
-        <f t="shared" ref="B25:B32" si="3">"R-SH*"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
+        <f t="shared" ref="B25:B32" si="3">"R-SH*"&amp;G25&amp;"_"&amp;H25&amp;"*"</f>
         <v>R-SH*Att_KER*</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4978376179101401E-2</v>
-      </c>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.3705701165065197E-2</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="H25" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H25" s="30" t="str">
-        <f t="shared" ref="H25" si="4">"R-S*_"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
+      <c r="I25" s="30" t="str">
+        <f t="shared" ref="I25" si="4">"R-S*_"&amp;G25&amp;"_"&amp;H25&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="K25" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="L25" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="L25" s="31">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K25,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.29839165082681302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M25" s="31">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!L25,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.29872122806778101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="54">
-        <f>D25</f>
-        <v>4.4978376179101401E-2</v>
-      </c>
-      <c r="F26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="54">
+        <f>E25</f>
+        <v>4.3705701165065197E-2</v>
+      </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="31"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>244</v>
       </c>
@@ -12492,22 +12486,23 @@
         <v>R-SH*Att_GAS*</v>
       </c>
       <c r="C27" s="30"/>
-      <c r="D27" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5032805879028399E-2</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.5964557684536103E-2</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="H27" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="30" t="str">
-        <f>"R-S*_"&amp;F25&amp;"_"&amp;G27&amp;"*"</f>
+      <c r="I27" s="30" t="str">
+        <f>"R-S*_"&amp;G25&amp;"_"&amp;H27&amp;"*"</f>
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>1</v>
       </c>
@@ -12516,22 +12511,23 @@
         <v>R-SH*Att_PEA*</v>
       </c>
       <c r="C28" s="31"/>
-      <c r="D28" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0893554801410602E-2</v>
-      </c>
-      <c r="F28" s="31" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.27790788417393E-2</v>
+      </c>
+      <c r="G28" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="H28" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="31" t="str">
-        <f>"R-S*_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
+      <c r="I28" s="31" t="str">
+        <f>"R-S*_"&amp;G28&amp;"_"&amp;H28&amp;"*"</f>
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>1</v>
       </c>
@@ -12540,62 +12536,65 @@
         <v>R-SH*Att_SMF*</v>
       </c>
       <c r="C29" s="30"/>
-      <c r="D29" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.3631430941555998E-2</v>
-      </c>
-      <c r="F29" s="30" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.2438724233275797E-2</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="H29" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="30" t="str">
-        <f>"R-S*_"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+      <c r="I29" s="30" t="str">
+        <f>"R-S*_"&amp;G29&amp;"_"&amp;H29&amp;"*"</f>
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B30" s="31" t="str">
-        <f>"R-SH*"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+        <f>"R-SH*"&amp;G30&amp;"_"&amp;H30&amp;"*"</f>
         <v>R-SH*Att_WOO*</v>
       </c>
       <c r="C30" s="31"/>
-      <c r="D30" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.119017735973187</v>
-      </c>
-      <c r="F30" s="31" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.11656908094434699</v>
+      </c>
+      <c r="G30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="H30" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H30" s="31" t="str">
-        <f>"R-S*_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+      <c r="I30" s="31" t="str">
+        <f>"R-S*_"&amp;G30&amp;"_"&amp;H30&amp;"*"</f>
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" s="30"/>
-      <c r="D31" s="53">
-        <f>D30</f>
-        <v>0.119017735973187</v>
-      </c>
-      <c r="F31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="53">
+        <f>E30</f>
+        <v>0.11656908094434699</v>
+      </c>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>1</v>
       </c>
@@ -12604,22 +12603,23 @@
         <v>R-SH*Att_HET*</v>
       </c>
       <c r="C32" s="31"/>
-      <c r="D32" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2872893208017001E-2</v>
-      </c>
-      <c r="F32" s="31" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.3481233276961201E-2</v>
+      </c>
+      <c r="G32" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="H32" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="31" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+      <c r="I32" s="31" t="str">
+        <f>"R-S*_"&amp;G32&amp;"_"&amp;H32&amp;"*"</f>
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>113</v>
       </c>
@@ -12630,192 +12630,201 @@
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="30" t="str">
-        <f>"R-SH*"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
+        <f>"R-SH*"&amp;G34&amp;"_"&amp;H34&amp;"*"</f>
         <v>R-SH*Det_COA*</v>
       </c>
       <c r="C34" s="30"/>
-      <c r="D34" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.47278411842156098</v>
-      </c>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.46414376338591401</v>
+      </c>
+      <c r="G34" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="H34" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="30" t="str">
-        <f t="shared" ref="H34:H37" si="5">"R-S*_"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
+      <c r="I34" s="30" t="str">
+        <f t="shared" ref="I34:I37" si="5">"R-S*_"&amp;G34&amp;"_"&amp;H34&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="31" t="str">
-        <f>"R-SH*"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
+        <f>"R-SH*"&amp;G35&amp;"_"&amp;H35&amp;"*"</f>
         <v>R-SH*Det_BDL*</v>
       </c>
       <c r="C35" s="31"/>
-      <c r="D35" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D35" s="31"/>
+      <c r="E35" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="G35" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="H35" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H35" s="31" t="str">
+      <c r="I35" s="31" t="str">
         <f t="shared" si="5"/>
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="30" t="str">
-        <f>"R-SH*"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
+        <f>"R-SH*"&amp;G36&amp;"_"&amp;H36&amp;"*"</f>
         <v>R-SH*Det_ETH*</v>
       </c>
       <c r="C36" s="30"/>
-      <c r="D36" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D36" s="30"/>
+      <c r="E36" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="G36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="H36" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="I36" s="30" t="str">
         <f t="shared" si="5"/>
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B37" s="31" t="str">
-        <f>"R-SH*"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <f>"R-SH*"&amp;G37&amp;"_"&amp;H37&amp;"*"</f>
         <v>R-SH*Det_LPG*</v>
       </c>
       <c r="C37" s="31"/>
-      <c r="D37" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0854130591549894E-2</v>
-      </c>
-      <c r="F37" s="31" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.97946718860816E-2</v>
+      </c>
+      <c r="G37" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="H37" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H37" s="31" t="str">
+      <c r="I37" s="31" t="str">
         <f t="shared" si="5"/>
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B38" s="30" t="str">
-        <f>"R-*_"&amp;F38&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Det*HPN*</v>
+        <f>"R-SH_"&amp;G38&amp;"*"&amp;"HPN*"</f>
+        <v>R-SH_Det*HPN*</v>
       </c>
       <c r="C38" s="30"/>
-      <c r="D38" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
-      </c>
-      <c r="F38" s="30" t="s">
+      <c r="D38" s="30"/>
+      <c r="E38" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.138319067250922</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="H38" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="30" t="str">
-        <f>"R-SH*"&amp;F38&amp;"_"&amp;G38&amp;"*X1"</f>
+      <c r="I38" s="30" t="str">
+        <f>"R-SH*"&amp;G38&amp;"_"&amp;H38&amp;"*X1"</f>
         <v>R-SH*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B39" s="31" t="str">
-        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Det_ELC_N1,-R-SC*</v>
+        <f>"R-SH_"&amp;G39&amp;"_"&amp;H39&amp;"_N1"</f>
+        <v>R-SH_Det_ELC_N1</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5630448521753401E-2</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.3843217634644903E-2</v>
+      </c>
+      <c r="G39" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="H39" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="31" t="str">
-        <f>"R-SH*"&amp;F38&amp;"_"&amp;G38&amp;"*X0"</f>
+      <c r="I39" s="31" t="str">
+        <f>"R-SH*"&amp;G38&amp;"_"&amp;H38&amp;"*X0"</f>
         <v>R-SH*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B40" s="30" t="str">
-        <f t="shared" ref="B40:B47" si="6">"R-SH*"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+        <f t="shared" ref="B40:B47" si="6">"R-SH*"&amp;G40&amp;"_"&amp;H40&amp;"*"</f>
         <v>R-SH*Det_KER*</v>
       </c>
       <c r="C40" s="30"/>
-      <c r="D40" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.92788432018662E-2</v>
-      </c>
-      <c r="F40" s="30" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.8157354051402902E-2</v>
+      </c>
+      <c r="G40" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="H40" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H40" s="30" t="str">
-        <f t="shared" ref="H40" si="7">"R-S*_"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+      <c r="I40" s="30" t="str">
+        <f t="shared" ref="I40" si="7">"R-S*_"&amp;G40&amp;"_"&amp;H40&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C41" s="31"/>
-      <c r="D41" s="54">
-        <f>D40</f>
-        <v>4.92788432018662E-2</v>
-      </c>
-      <c r="F41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="54">
+        <f>E40</f>
+        <v>4.8157354051402902E-2</v>
+      </c>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>244</v>
       </c>
@@ -12824,22 +12833,23 @@
         <v>R-SH*Det_GAS*</v>
       </c>
       <c r="C42" s="30"/>
-      <c r="D42" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.9151690301129402E-2</v>
-      </c>
-      <c r="F42" s="30" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.96720040920054E-2</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="H42" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H42" s="30" t="str">
-        <f>"R-S*_"&amp;F40&amp;"_"&amp;G42&amp;"*"</f>
+      <c r="I42" s="30" t="str">
+        <f>"R-S*_"&amp;G40&amp;"_"&amp;H42&amp;"*"</f>
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>1</v>
       </c>
@@ -12848,22 +12858,23 @@
         <v>R-SH*Det_PEA*</v>
       </c>
       <c r="C43" s="31"/>
-      <c r="D43" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100420210433235</v>
-      </c>
-      <c r="F43" s="31" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.101539467044872</v>
+      </c>
+      <c r="G43" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="H43" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="31" t="str">
-        <f>"R-S*_"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
+      <c r="I43" s="31" t="str">
+        <f>"R-S*_"&amp;G43&amp;"_"&amp;H43&amp;"*"</f>
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>1</v>
       </c>
@@ -12872,22 +12883,23 @@
         <v>R-SH*Det_SMF*</v>
       </c>
       <c r="C44" s="30"/>
-      <c r="D44" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13720876081054401</v>
-      </c>
-      <c r="F44" s="30" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.13495608652757701</v>
+      </c>
+      <c r="G44" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="H44" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="30" t="str">
-        <f>"R-S*_"&amp;F44&amp;"_"&amp;G44&amp;"*"</f>
+      <c r="I44" s="30" t="str">
+        <f>"R-S*_"&amp;G44&amp;"_"&amp;H44&amp;"*"</f>
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>244</v>
       </c>
@@ -12896,38 +12908,40 @@
         <v>R-SH*Det_WOO*</v>
       </c>
       <c r="C45" s="31"/>
-      <c r="D45" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.6348966878171502E-2</v>
-      </c>
-      <c r="F45" s="31" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.4687203541950801E-2</v>
+      </c>
+      <c r="G45" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="H45" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="31" t="str">
-        <f>"R-S*_"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+      <c r="I45" s="31" t="str">
+        <f>"R-S*_"&amp;G45&amp;"_"&amp;H45&amp;"*"</f>
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" s="30"/>
-      <c r="D46" s="53">
-        <f>D45</f>
-        <v>9.6348966878171502E-2</v>
-      </c>
-      <c r="F46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="53">
+        <f>E45</f>
+        <v>9.4687203541950801E-2</v>
+      </c>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>1</v>
       </c>
@@ -12936,215 +12950,224 @@
         <v>R-SH*Det_HET*</v>
       </c>
       <c r="C47" s="31"/>
-      <c r="D47" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.200825091733705</v>
-      </c>
-      <c r="F47" s="31" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.203493994761373</v>
+      </c>
+      <c r="G47" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="H47" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="31" t="str">
-        <f>"R-S*_"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
+      <c r="I47" s="31" t="str">
+        <f>"R-S*_"&amp;G47&amp;"_"&amp;H47&amp;"*"</f>
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>251</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="F48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="30" t="str">
-        <f>"R-SW*"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+        <f>"R-SW*"&amp;G49&amp;"_"&amp;H49&amp;"*"</f>
         <v>R-SW*Apt_COA*</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="53">
-        <f>D6</f>
-        <v>0.41882471081785599</v>
-      </c>
-      <c r="F49" s="30" t="s">
+      <c r="E49" s="53">
+        <f>E6</f>
+        <v>0.40654789002485697</v>
+      </c>
+      <c r="G49" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="H49" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="30" t="str">
-        <f t="shared" ref="H49:H52" si="8">"R-S*_"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+      <c r="I49" s="30" t="str">
+        <f t="shared" ref="I49:I52" si="8">"R-S*_"&amp;G49&amp;"_"&amp;H49&amp;"*"</f>
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="31" t="str">
-        <f>"R-SW*"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <f>"R-SW*"&amp;G50&amp;"_"&amp;H50&amp;"*"</f>
         <v>R-SW*Apt_BDL*</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D50" s="54">
-        <f t="shared" ref="D50:D59" si="9">D7</f>
-        <v>9.4570753703752605E-3</v>
-      </c>
-      <c r="F50" s="31" t="s">
+      <c r="E50" s="54">
+        <f t="shared" ref="E50:E59" si="9">E7</f>
+        <v>9.6640000122913006E-3</v>
+      </c>
+      <c r="G50" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="H50" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H50" s="31" t="str">
+      <c r="I50" s="31" t="str">
         <f t="shared" si="8"/>
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="30" t="str">
-        <f>"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f>"R-SW*"&amp;G51&amp;"_"&amp;H51&amp;"*"</f>
         <v>R-SW*Apt_ETH*</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="53">
+      <c r="E51" s="53">
         <f t="shared" si="9"/>
-        <v>2.0352386019458902E-5</v>
-      </c>
-      <c r="F51" s="30" t="s">
+        <v>2.0797704474084602E-5</v>
+      </c>
+      <c r="G51" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="H51" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="30" t="str">
+      <c r="I51" s="30" t="str">
         <f t="shared" si="8"/>
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B52" s="31" t="str">
-        <f>"R-SW*"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
+        <f>"R-SW*"&amp;G52&amp;"_"&amp;H52&amp;"*"</f>
         <v>R-SW*Apt_LPG*</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D52" s="54">
+      <c r="E52" s="54">
         <f t="shared" si="9"/>
-        <v>4.8787825956958103E-2</v>
-      </c>
-      <c r="F52" s="31" t="s">
+        <v>4.7559865677763699E-2</v>
+      </c>
+      <c r="G52" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="H52" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H52" s="31" t="str">
+      <c r="I52" s="31" t="str">
         <f t="shared" si="8"/>
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B53" s="30" t="str">
-        <f>"R-*_"&amp;F53&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Apt*HPN*</v>
-      </c>
-      <c r="C53" s="30" t="s">
+        <f>"R-SW_"&amp;G53&amp;"*"&amp;"HPN*"</f>
+        <v>R-SW_Apt*HPN*</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="53">
-        <f>D10</f>
-        <v>0.183575067201909</v>
-      </c>
-      <c r="F53" s="30" t="s">
+      <c r="E53" s="53">
+        <f>E10</f>
+        <v>0.18130269923092601</v>
+      </c>
+      <c r="G53" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="H53" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="30" t="str">
-        <f>"R-SW*"&amp;F53&amp;"_"&amp;G53&amp;"*X1"</f>
+      <c r="I53" s="30" t="str">
+        <f>"R-SW*"&amp;G53&amp;"_"&amp;H53&amp;"*X1"</f>
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B54" s="31" t="str">
-        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Apt_ELC_N1,-R-SC*</v>
-      </c>
-      <c r="C54" s="31" t="s">
+        <f>"R-SW_"&amp;G54&amp;"_"&amp;H54&amp;"_N1"</f>
+        <v>R-SW_Apt_ELC_N1</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D54" s="54">
+      <c r="E54" s="54">
         <f t="shared" si="9"/>
-        <v>1.7227618659613701E-2</v>
-      </c>
-      <c r="F54" s="31" t="s">
+        <v>1.3931119040235E-2</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="H54" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="31" t="str">
-        <f>"R-SW*"&amp;F53&amp;"_"&amp;G53&amp;"*X0"</f>
+      <c r="I54" s="31" t="str">
+        <f>"R-SW*"&amp;G53&amp;"_"&amp;H53&amp;"*X0"</f>
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B55" s="30" t="str">
-        <f t="shared" ref="B55:B60" si="10">"R-SW*"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <f t="shared" ref="B55:B60" si="10">"R-SW*"&amp;G55&amp;"_"&amp;H55&amp;"*"</f>
         <v>R-SW*Apt_KER*</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D55" s="53">
+      <c r="E55" s="53">
         <f t="shared" si="9"/>
-        <v>7.8978154557043795E-2</v>
-      </c>
-      <c r="F55" s="30" t="s">
+        <v>7.5994529972598895E-2</v>
+      </c>
+      <c r="G55" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="H55" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H55" s="30" t="str">
-        <f t="shared" ref="H55" si="11">"R-S*_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+      <c r="I55" s="30" t="str">
+        <f t="shared" ref="I55" si="11">"R-S*_"&amp;G55&amp;"_"&amp;H55&amp;"*"</f>
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>198</v>
       </c>
@@ -13152,25 +13175,26 @@
         <f t="shared" si="10"/>
         <v>R-SW*Apt_GAS*</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D56" s="54">
+      <c r="E56" s="54">
         <f t="shared" si="9"/>
-        <v>2.5069945114006401E-2</v>
-      </c>
-      <c r="F56" s="31" t="s">
+        <v>2.5618485673577399E-2</v>
+      </c>
+      <c r="G56" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="H56" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="31" t="str">
-        <f>"R-S*_"&amp;F55&amp;"_"&amp;G56&amp;"*"</f>
+      <c r="I56" s="31" t="str">
+        <f>"R-S*_"&amp;G55&amp;"_"&amp;H56&amp;"*"</f>
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>1</v>
       </c>
@@ -13178,25 +13202,26 @@
         <f t="shared" si="10"/>
         <v>R-SW*Apt_PEA*</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D57" s="53">
+      <c r="E57" s="53">
         <f t="shared" si="9"/>
-        <v>0.15828050607333199</v>
-      </c>
-      <c r="F57" s="30" t="s">
+        <v>0.161743747694956</v>
+      </c>
+      <c r="G57" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="H57" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H57" s="30" t="str">
-        <f>"R-S*_"&amp;F57&amp;"_"&amp;G57&amp;"*"</f>
+      <c r="I57" s="30" t="str">
+        <f>"R-S*_"&amp;G57&amp;"_"&amp;H57&amp;"*"</f>
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>1</v>
       </c>
@@ -13204,25 +13229,26 @@
         <f t="shared" si="10"/>
         <v>R-SW*Apt_SMF*</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="54">
+      <c r="E58" s="54">
         <f t="shared" si="9"/>
-        <v>0.14698298838932999</v>
-      </c>
-      <c r="F58" s="31" t="s">
+        <v>0.14274595375996399</v>
+      </c>
+      <c r="G58" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="H58" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="31" t="str">
-        <f>"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+      <c r="I58" s="31" t="str">
+        <f>"R-S*_"&amp;G58&amp;"_"&amp;H58&amp;"*"</f>
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>198</v>
       </c>
@@ -13230,25 +13256,26 @@
         <f t="shared" si="10"/>
         <v>R-SW*Apt_WOO*</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="30"/>
+      <c r="D59" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D59" s="53">
+      <c r="E59" s="53">
         <f t="shared" si="9"/>
-        <v>3.7307426022765301E-2</v>
-      </c>
-      <c r="F59" s="30" t="s">
+        <v>3.6221240391349503E-2</v>
+      </c>
+      <c r="G59" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="H59" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="H59" s="30" t="str">
-        <f>"R-S*_"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+      <c r="I59" s="30" t="str">
+        <f>"R-S*_"&amp;G59&amp;"_"&amp;H59&amp;"*"</f>
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>198</v>
       </c>
@@ -13256,25 +13283,26 @@
         <f t="shared" si="10"/>
         <v>R-SW*Apt_HET*</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D60" s="54">
-        <f>D17</f>
-        <v>2.3488908827814098E-3</v>
-      </c>
-      <c r="F60" s="31" t="s">
+      <c r="E60" s="54">
+        <f>E17</f>
+        <v>2.4002855672672599E-3</v>
+      </c>
+      <c r="G60" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="31" t="s">
+      <c r="H60" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="31" t="str">
-        <f>"R-S*_"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+      <c r="I60" s="31" t="str">
+        <f>"R-S*_"&amp;G60&amp;"_"&amp;H60&amp;"*"</f>
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>250</v>
       </c>
@@ -13285,208 +13313,217 @@
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="30" t="str">
-        <f>"R-SW*"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <f>"R-SW*"&amp;G62&amp;"_"&amp;H62&amp;"*"</f>
         <v>R-SW*Att_COA*</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D62" s="53">
-        <f>D19</f>
-        <v>0.31784775894057798</v>
-      </c>
-      <c r="F62" s="30" t="s">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="53">
+        <f>E19</f>
+        <v>0.30984484845142601</v>
+      </c>
+      <c r="G62" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="H62" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="30" t="str">
-        <f t="shared" ref="H62:H65" si="12">"R-S*_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+      <c r="I62" s="30" t="str">
+        <f t="shared" ref="I62:I65" si="12">"R-S*_"&amp;G62&amp;"_"&amp;H62&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="31" t="str">
-        <f>"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f>"R-SW*"&amp;G63&amp;"_"&amp;H63&amp;"*"</f>
         <v>R-SW*Att_BDL*</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D63" s="54">
-        <f t="shared" ref="D63:D75" si="13">D20</f>
-        <v>2.4658929270483999E-2</v>
-      </c>
-      <c r="F63" s="31" t="s">
+      <c r="C63" s="31"/>
+      <c r="D63" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="54">
+        <f t="shared" ref="E63:E75" si="13">E20</f>
+        <v>2.53147717385124E-2</v>
+      </c>
+      <c r="G63" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="H63" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H63" s="31" t="str">
+      <c r="I63" s="31" t="str">
         <f t="shared" si="12"/>
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="30" t="str">
-        <f>"R-SW*"&amp;F64&amp;"_"&amp;G64&amp;"*"</f>
+        <f>"R-SW*"&amp;G64&amp;"_"&amp;H64&amp;"*"</f>
         <v>R-SW*Att_ETH*</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D64" s="53">
+      <c r="C64" s="30"/>
+      <c r="D64" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="G64" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="H64" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="30" t="str">
+      <c r="I64" s="30" t="str">
         <f t="shared" si="12"/>
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B65" s="31" t="str">
-        <f>"R-SW*"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
+        <f>"R-SW*"&amp;G65&amp;"_"&amp;H65&amp;"*"</f>
         <v>R-SW*Att_LPG*</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" s="54">
+      <c r="C65" s="31"/>
+      <c r="D65" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="54">
         <f t="shared" si="13"/>
-        <v>4.9050090196469498E-2</v>
-      </c>
-      <c r="F65" s="31" t="s">
+        <v>4.8109166237074001E-2</v>
+      </c>
+      <c r="G65" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G65" s="31" t="s">
+      <c r="H65" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H65" s="31" t="str">
+      <c r="I65" s="31" t="str">
         <f t="shared" si="12"/>
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B66" s="30" t="str">
-        <f>"R-*_"&amp;F66&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Att*HPN*</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D66" s="53">
+        <f>"R-SW_"&amp;G66&amp;"*"&amp;"HPN*"</f>
+        <v>R-SW_Att*HPN*</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" s="53">
         <f t="shared" si="13"/>
-        <v>0.113204385544111</v>
-      </c>
-      <c r="F66" s="30" t="s">
+        <v>0.11404303534564</v>
+      </c>
+      <c r="G66" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="H66" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H66" s="30" t="str">
-        <f>"R-SW*"&amp;F53&amp;"_"&amp;G53&amp;"*X1"</f>
+      <c r="I66" s="30" t="str">
+        <f>"R-SW*"&amp;G53&amp;"_"&amp;H53&amp;"*X1"</f>
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B67" s="31" t="str">
-        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Att_ELC_N1,-R-SC*</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="54">
+        <f>"R-SW_"&amp;G67&amp;"_"&amp;H67&amp;"_N1"</f>
+        <v>R-SW_Att_ELC_N1</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="54">
         <f t="shared" si="13"/>
-        <v>3.7537381358533697E-2</v>
-      </c>
-      <c r="F67" s="31" t="s">
+        <v>3.5156391297092499E-2</v>
+      </c>
+      <c r="G67" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="H67" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H67" s="31" t="str">
-        <f>"R-SW*"&amp;F53&amp;"_"&amp;G53&amp;"*X0"</f>
+      <c r="I67" s="31" t="str">
+        <f>"R-SW*"&amp;G53&amp;"_"&amp;H53&amp;"*X0"</f>
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B68" s="30" t="str">
-        <f t="shared" ref="B68:B75" si="14">"R-SW*"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
+        <f t="shared" ref="B68:B75" si="14">"R-SW*"&amp;G68&amp;"_"&amp;H68&amp;"*"</f>
         <v>R-SW*Att_KER*</v>
       </c>
-      <c r="C68" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" s="53">
+      <c r="C68" s="30"/>
+      <c r="D68" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" s="53">
         <f t="shared" si="13"/>
-        <v>4.4978376179101401E-2</v>
-      </c>
-      <c r="F68" s="30" t="s">
+        <v>4.3705701165065197E-2</v>
+      </c>
+      <c r="G68" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="H68" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H68" s="30" t="str">
-        <f t="shared" ref="H68" si="15">"R-S*_"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
+      <c r="I68" s="30" t="str">
+        <f t="shared" ref="I68" si="15">"R-S*_"&amp;G68&amp;"_"&amp;H68&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" s="54">
+        <v>274</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="54">
         <f t="shared" si="13"/>
-        <v>4.4978376179101401E-2</v>
-      </c>
-      <c r="F69" s="31"/>
+        <v>4.3705701165065197E-2</v>
+      </c>
       <c r="G69" s="31"/>
       <c r="H69" s="31"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>198</v>
       </c>
@@ -13494,25 +13531,26 @@
         <f t="shared" si="14"/>
         <v>R-SW*Att_GAS*</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" s="53">
+      <c r="C70" s="30"/>
+      <c r="D70" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="53">
         <f t="shared" si="13"/>
-        <v>3.5032805879028399E-2</v>
-      </c>
-      <c r="F70" s="30" t="s">
+        <v>3.5964557684536103E-2</v>
+      </c>
+      <c r="G70" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G70" s="30" t="s">
+      <c r="H70" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H70" s="30" t="str">
-        <f>"R-S*_"&amp;F68&amp;"_"&amp;G70&amp;"*"</f>
+      <c r="I70" s="30" t="str">
+        <f>"R-S*_"&amp;G68&amp;"_"&amp;H70&amp;"*"</f>
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>1</v>
       </c>
@@ -13520,25 +13558,26 @@
         <f t="shared" si="14"/>
         <v>R-SW*Att_PEA*</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" s="54">
+      <c r="C71" s="31"/>
+      <c r="D71" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="54">
         <f t="shared" si="13"/>
-        <v>7.0893554801410602E-2</v>
-      </c>
-      <c r="F71" s="31" t="s">
+        <v>7.27790788417393E-2</v>
+      </c>
+      <c r="G71" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="H71" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H71" s="31" t="str">
-        <f>"R-S*_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+      <c r="I71" s="31" t="str">
+        <f>"R-S*_"&amp;G71&amp;"_"&amp;H71&amp;"*"</f>
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>1</v>
       </c>
@@ -13546,25 +13585,26 @@
         <f t="shared" si="14"/>
         <v>R-SW*Att_SMF*</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" s="53">
+      <c r="C72" s="30"/>
+      <c r="D72" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" s="53">
         <f t="shared" si="13"/>
-        <v>7.3631430941555998E-2</v>
-      </c>
-      <c r="F72" s="30" t="s">
+        <v>7.2438724233275797E-2</v>
+      </c>
+      <c r="G72" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="H72" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H72" s="30" t="str">
-        <f>"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+      <c r="I72" s="30" t="str">
+        <f>"R-S*_"&amp;G72&amp;"_"&amp;H72&amp;"*"</f>
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>198</v>
       </c>
@@ -13572,43 +13612,45 @@
         <f t="shared" si="14"/>
         <v>R-SW*Att_WOO*</v>
       </c>
-      <c r="C73" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" s="54">
+      <c r="C73" s="31"/>
+      <c r="D73" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="54">
         <f t="shared" si="13"/>
-        <v>0.119017735973187</v>
-      </c>
-      <c r="F73" s="31" t="s">
+        <v>0.11656908094434699</v>
+      </c>
+      <c r="G73" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="31" t="s">
+      <c r="H73" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H73" s="31" t="str">
-        <f>"R-S*_"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+      <c r="I73" s="31" t="str">
+        <f>"R-S*_"&amp;G73&amp;"_"&amp;H73&amp;"*"</f>
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" s="53">
+        <v>270</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="53">
         <f t="shared" si="13"/>
-        <v>0.119017735973187</v>
-      </c>
-      <c r="F74" s="30"/>
+        <v>0.11656908094434699</v>
+      </c>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>198</v>
       </c>
@@ -13616,25 +13658,26 @@
         <f t="shared" si="14"/>
         <v>R-SW*Att_HET*</v>
       </c>
-      <c r="C75" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" s="54">
+      <c r="C75" s="31"/>
+      <c r="D75" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="54">
         <f t="shared" si="13"/>
-        <v>2.2872893208017001E-2</v>
-      </c>
-      <c r="F75" s="31" t="s">
+        <v>2.3481233276961201E-2</v>
+      </c>
+      <c r="G75" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="31" t="s">
+      <c r="H75" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H75" s="31" t="str">
-        <f>"R-S*_"&amp;F75&amp;"_"&amp;G75&amp;"*"</f>
+      <c r="I75" s="31" t="str">
+        <f>"R-S*_"&amp;G75&amp;"_"&amp;H75&amp;"*"</f>
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>249</v>
       </c>
@@ -13645,208 +13688,217 @@
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I76" s="28"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="30" t="str">
-        <f>"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f>"R-SW*"&amp;G77&amp;"_"&amp;H77&amp;"*"</f>
         <v>R-SW*Det_COA*</v>
       </c>
-      <c r="C77" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="53">
-        <f>D34</f>
-        <v>0.47278411842156098</v>
-      </c>
-      <c r="F77" s="30" t="s">
+      <c r="C77" s="30"/>
+      <c r="D77" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" s="53">
+        <f>E34</f>
+        <v>0.46414376338591401</v>
+      </c>
+      <c r="G77" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="H77" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H77" s="30" t="str">
-        <f t="shared" ref="H77:H80" si="16">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+      <c r="I77" s="30" t="str">
+        <f t="shared" ref="I77:I80" si="16">"R-S*_"&amp;G77&amp;"_"&amp;H77&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="31" t="str">
-        <f>"R-SW*"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
+        <f>"R-SW*"&amp;G78&amp;"_"&amp;H78&amp;"*"</f>
         <v>R-SW*Det_BDL*</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D78" s="54">
-        <f t="shared" ref="D78:D90" si="17">D35</f>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E78" s="54">
+        <f t="shared" ref="E78:E90" si="17">E35</f>
         <v>0</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="G78" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="H78" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H78" s="31" t="str">
+      <c r="I78" s="31" t="str">
         <f t="shared" si="16"/>
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="30" t="str">
-        <f>"R-SW*"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
+        <f>"R-SW*"&amp;G79&amp;"_"&amp;H79&amp;"*"</f>
         <v>R-SW*Det_ETH*</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="53">
+      <c r="C79" s="30"/>
+      <c r="D79" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" s="53">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="G79" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G79" s="30" t="s">
+      <c r="H79" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H79" s="30" t="str">
+      <c r="I79" s="30" t="str">
         <f t="shared" si="16"/>
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B80" s="31" t="str">
-        <f>"R-SW*"&amp;F80&amp;"_"&amp;G80&amp;"*"</f>
+        <f>"R-SW*"&amp;G80&amp;"_"&amp;H80&amp;"*"</f>
         <v>R-SW*Det_LPG*</v>
       </c>
-      <c r="C80" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D80" s="54">
+      <c r="C80" s="31"/>
+      <c r="D80" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E80" s="54">
         <f t="shared" si="17"/>
-        <v>7.0854130591549894E-2</v>
-      </c>
-      <c r="F80" s="31" t="s">
+        <v>6.97946718860816E-2</v>
+      </c>
+      <c r="G80" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="H80" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H80" s="31" t="str">
+      <c r="I80" s="31" t="str">
         <f t="shared" si="16"/>
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B81" s="30" t="str">
-        <f>"R-*_"&amp;F81&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Det*HPN*</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D81" s="53">
+        <f>"R-SW_"&amp;G81&amp;"*"&amp;"HPN*"</f>
+        <v>R-SW_Det*HPN*</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E81" s="53">
         <f t="shared" si="17"/>
-        <v>0.13766734761320301</v>
-      </c>
-      <c r="F81" s="30" t="s">
+        <v>0.138319067250922</v>
+      </c>
+      <c r="G81" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G81" s="30" t="s">
+      <c r="H81" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H81" s="30" t="str">
-        <f>"R-SW*"&amp;F81&amp;"_"&amp;G81&amp;"*X1"</f>
+      <c r="I81" s="30" t="str">
+        <f>"R-SW*"&amp;G81&amp;"_"&amp;H81&amp;"*X1"</f>
         <v>R-SW*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B82" s="31" t="str">
-        <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Det_ELC_N1,-R-SC*</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D82" s="54">
+        <f>"R-SW_"&amp;G82&amp;"_"&amp;H82&amp;"_N1"</f>
+        <v>R-SW_Det_ELC_N1</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E82" s="54">
         <f t="shared" si="17"/>
-        <v>4.5630448521753401E-2</v>
-      </c>
-      <c r="F82" s="31" t="s">
+        <v>4.3843217634644903E-2</v>
+      </c>
+      <c r="G82" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="H82" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H82" s="31" t="str">
-        <f>"R-SW*"&amp;F82&amp;"_"&amp;G82&amp;"*X0"</f>
+      <c r="I82" s="31" t="str">
+        <f>"R-SW*"&amp;G82&amp;"_"&amp;H82&amp;"*X0"</f>
         <v>R-SW*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B83" s="30" t="str">
-        <f t="shared" ref="B83:B90" si="18">"R-SW*"&amp;F83&amp;"_"&amp;G83&amp;"*"</f>
+        <f t="shared" ref="B83:B90" si="18">"R-SW*"&amp;G83&amp;"_"&amp;H83&amp;"*"</f>
         <v>R-SW*Det_KER*</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="53">
+      <c r="C83" s="30"/>
+      <c r="D83" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="53">
         <f t="shared" si="17"/>
-        <v>4.92788432018662E-2</v>
-      </c>
-      <c r="F83" s="30" t="s">
+        <v>4.8157354051402902E-2</v>
+      </c>
+      <c r="G83" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G83" s="30" t="s">
+      <c r="H83" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H83" s="30" t="str">
-        <f t="shared" ref="H83" si="19">"R-S*_"&amp;F83&amp;"_"&amp;G83&amp;"*"</f>
+      <c r="I83" s="30" t="str">
+        <f t="shared" ref="I83" si="19">"R-S*_"&amp;G83&amp;"_"&amp;H83&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" s="54">
+        <v>275</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="54">
         <f t="shared" si="17"/>
-        <v>4.92788432018662E-2</v>
-      </c>
-      <c r="F84" s="31"/>
+        <v>4.8157354051402902E-2</v>
+      </c>
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I84" s="31"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>198</v>
       </c>
@@ -13854,25 +13906,26 @@
         <f t="shared" si="18"/>
         <v>R-SW*Det_GAS*</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="53">
+      <c r="C85" s="30"/>
+      <c r="D85" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" s="53">
         <f t="shared" si="17"/>
-        <v>3.9151690301129402E-2</v>
-      </c>
-      <c r="F85" s="30" t="s">
+        <v>3.96720040920054E-2</v>
+      </c>
+      <c r="G85" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G85" s="30" t="s">
+      <c r="H85" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="30" t="str">
-        <f>"R-S*_"&amp;F83&amp;"_"&amp;G85&amp;"*"</f>
+      <c r="I85" s="30" t="str">
+        <f>"R-S*_"&amp;G83&amp;"_"&amp;H85&amp;"*"</f>
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>1</v>
       </c>
@@ -13880,25 +13933,26 @@
         <f t="shared" si="18"/>
         <v>R-SW*Det_PEA*</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D86" s="54">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="54">
         <f t="shared" si="17"/>
-        <v>0.100420210433235</v>
-      </c>
-      <c r="F86" s="31" t="s">
+        <v>0.101539467044872</v>
+      </c>
+      <c r="G86" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G86" s="31" t="s">
+      <c r="H86" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H86" s="31" t="str">
-        <f>"R-S*_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+      <c r="I86" s="31" t="str">
+        <f>"R-S*_"&amp;G86&amp;"_"&amp;H86&amp;"*"</f>
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>1</v>
       </c>
@@ -13906,25 +13960,26 @@
         <f t="shared" si="18"/>
         <v>R-SW*Det_SMF*</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D87" s="53">
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" s="53">
         <f t="shared" si="17"/>
-        <v>0.13720876081054401</v>
-      </c>
-      <c r="F87" s="30" t="s">
+        <v>0.13495608652757701</v>
+      </c>
+      <c r="G87" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G87" s="30" t="s">
+      <c r="H87" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H87" s="30" t="str">
-        <f>"R-S*_"&amp;F87&amp;"_"&amp;G87&amp;"*"</f>
+      <c r="I87" s="30" t="str">
+        <f>"R-S*_"&amp;G87&amp;"_"&amp;H87&amp;"*"</f>
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>198</v>
       </c>
@@ -13932,43 +13987,45 @@
         <f t="shared" si="18"/>
         <v>R-SW*Det_WOO*</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D88" s="54">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" s="54">
         <f t="shared" si="17"/>
-        <v>9.6348966878171502E-2</v>
-      </c>
-      <c r="F88" s="31" t="s">
+        <v>9.4687203541950801E-2</v>
+      </c>
+      <c r="G88" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="H88" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H88" s="31" t="str">
-        <f>"R-S*_"&amp;F88&amp;"_"&amp;G88&amp;"*"</f>
+      <c r="I88" s="31" t="str">
+        <f>"R-S*_"&amp;G88&amp;"_"&amp;H88&amp;"*"</f>
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D89" s="53">
+        <v>271</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" s="53">
         <f t="shared" si="17"/>
-        <v>9.6348966878171502E-2</v>
-      </c>
-      <c r="F89" s="30"/>
+        <v>9.4687203541950801E-2</v>
+      </c>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>198</v>
       </c>
@@ -13976,60 +14033,63 @@
         <f t="shared" si="18"/>
         <v>R-SW*Det_HET*</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D90" s="54">
+      <c r="C90" s="31"/>
+      <c r="D90" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" s="54">
         <f t="shared" si="17"/>
-        <v>0.200825091733705</v>
-      </c>
-      <c r="F90" s="31" t="s">
+        <v>0.203493994761373</v>
+      </c>
+      <c r="G90" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G90" s="31" t="s">
+      <c r="H90" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H90" s="31" t="str">
-        <f>"R-S*_"&amp;F90&amp;"_"&amp;G90&amp;"*"</f>
+      <c r="I90" s="31" t="str">
+        <f>"R-S*_"&amp;G90&amp;"_"&amp;H90&amp;"*"</f>
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="F91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="29"/>
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I91" s="28"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="30" t="str">
-        <f t="shared" ref="B92:B102" si="20">"R-WH_"&amp;F92&amp;"_"&amp;G92&amp;"*"</f>
+        <f t="shared" ref="B92:B102" si="20">"R-WH_"&amp;G92&amp;"_"&amp;H92&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C92" s="30"/>
-      <c r="D92" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.45255796882634303</v>
-      </c>
-      <c r="F92" s="30" t="s">
+      <c r="D92" s="30"/>
+      <c r="E92" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.42342871317737102</v>
+      </c>
+      <c r="G92" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G92" s="30" t="s">
+      <c r="H92" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H92" s="30" t="str">
-        <f t="shared" ref="H92:H97" si="21">"R-WH_"&amp;F92&amp;"_"&amp;G92&amp;"*"</f>
+      <c r="I92" s="30" t="str">
+        <f t="shared" ref="I92:I97" si="21">"R-WH_"&amp;G92&amp;"_"&amp;H92&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>1</v>
       </c>
@@ -14038,22 +14098,23 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C93" s="31"/>
-      <c r="D93" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D93" s="31"/>
+      <c r="E93" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.5051369863013695E-2</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="G93" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="31" t="s">
+      <c r="H93" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H93" s="31" t="str">
+      <c r="I93" s="31" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>1</v>
       </c>
@@ -14062,22 +14123,23 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C94" s="30"/>
-      <c r="D94" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D94" s="30"/>
+      <c r="E94" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.0422374429223698E-2</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="G94" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="H94" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H94" s="30" t="str">
+      <c r="I94" s="30" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>1</v>
       </c>
@@ -14086,46 +14148,48 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="C95" s="31"/>
-      <c r="D95" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13251764473730199</v>
-      </c>
-      <c r="F95" s="31" t="s">
+      <c r="D95" s="31"/>
+      <c r="E95" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.12792665468435199</v>
+      </c>
+      <c r="G95" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="H95" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H95" s="31" t="str">
+      <c r="I95" s="31" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B96" s="30" t="str">
-        <f>"R-WH_"&amp;F96&amp;"_"&amp;G96&amp;"*"</f>
+        <f>"R-WH_"&amp;G96&amp;"_"&amp;H96&amp;"*"</f>
         <v>R-WH_Apt_ELC*</v>
       </c>
       <c r="C96" s="30"/>
-      <c r="D96" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.2549233288808403E-2</v>
-      </c>
-      <c r="F96" s="30" t="s">
+      <c r="D96" s="30"/>
+      <c r="E96" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.3377456313566302E-2</v>
+      </c>
+      <c r="G96" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G96" s="30" t="s">
+      <c r="H96" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H96" s="30" t="str">
-        <f>"R-WH_"&amp;F96&amp;"_"&amp;G96&amp;"*X0"</f>
+      <c r="I96" s="30" t="str">
+        <f>"R-WH_"&amp;G96&amp;"_"&amp;H96&amp;"*X0"</f>
         <v>R-WH_Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>1</v>
       </c>
@@ -14134,22 +14198,23 @@
         <v>R-WH_Apt_KER*</v>
       </c>
       <c r="C97" s="31"/>
-      <c r="D97" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.112170033510623</v>
-      </c>
-      <c r="F97" s="31" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.11252568167857099</v>
+      </c>
+      <c r="G97" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G97" s="31" t="s">
+      <c r="H97" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="H97" s="31" t="str">
+      <c r="I97" s="31" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>1</v>
       </c>
@@ -14158,22 +14223,23 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="C98" s="30"/>
-      <c r="D98" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5045615347050301E-2</v>
-      </c>
-      <c r="F98" s="30" t="s">
+      <c r="D98" s="30"/>
+      <c r="E98" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.0645497051149098E-2</v>
+      </c>
+      <c r="G98" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G98" s="30" t="s">
+      <c r="H98" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H98" s="30" t="str">
-        <f>"R-WH_"&amp;F97&amp;"_"&amp;G98&amp;"*"</f>
+      <c r="I98" s="30" t="str">
+        <f>"R-WH_"&amp;G97&amp;"_"&amp;H98&amp;"*"</f>
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>1</v>
       </c>
@@ -14182,22 +14248,23 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
       <c r="C99" s="31"/>
-      <c r="D99" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D99" s="31"/>
+      <c r="E99" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.0627195293291204E-2</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="G99" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G99" s="31" t="s">
+      <c r="H99" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H99" s="31" t="str">
-        <f t="shared" ref="H99:H103" si="22">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+      <c r="I99" s="31" t="str">
+        <f t="shared" ref="I99:I103" si="22">"R-WH_"&amp;G99&amp;"_"&amp;H99&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>1</v>
       </c>
@@ -14206,22 +14273,23 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
       <c r="C100" s="30"/>
-      <c r="D100" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0196313138344295E-2</v>
-      </c>
-      <c r="F100" s="30" t="s">
+      <c r="D100" s="30"/>
+      <c r="E100" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.67381932124731E-2</v>
+      </c>
+      <c r="G100" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G100" s="30" t="s">
+      <c r="H100" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H100" s="30" t="str">
+      <c r="I100" s="30" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>1</v>
       </c>
@@ -14230,22 +14298,23 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="C101" s="31"/>
-      <c r="D101" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.10316120676872401</v>
-      </c>
-      <c r="F101" s="31" t="s">
+      <c r="D101" s="31"/>
+      <c r="E101" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.9394310243560199E-2</v>
+      </c>
+      <c r="G101" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="H101" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H101" s="31" t="str">
+      <c r="I101" s="31" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>1</v>
       </c>
@@ -14254,46 +14323,48 @@
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="C102" s="30"/>
-      <c r="D102" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D102" s="30"/>
+      <c r="E102" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.2373195740855901E-3</v>
       </c>
-      <c r="F102" s="30" t="s">
+      <c r="G102" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="H102" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H102" s="30" t="str">
+      <c r="I102" s="30" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B103" s="30" t="str">
-        <f>"R-WH_"&amp;F103&amp;"_"&amp;G103&amp;"*"</f>
+        <f>"R-WH_"&amp;G103&amp;"_"&amp;H103&amp;"*"</f>
         <v>R-WH_Apt_SOL*</v>
       </c>
       <c r="C103" s="30"/>
-      <c r="D103" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.143159113753899</v>
-      </c>
-      <c r="F103" s="30" t="s">
+      <c r="D103" s="30"/>
+      <c r="E103" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.13976565562716001</v>
+      </c>
+      <c r="G103" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G103" s="30" t="s">
+      <c r="H103" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H103" s="30" t="str">
+      <c r="I103" s="30" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
         <v>116</v>
       </c>
@@ -14304,32 +14375,34 @@
       <c r="F104" s="28"/>
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I104" s="28"/>
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B105" s="30" t="str">
-        <f t="shared" ref="B105:B115" si="23">"R-WH_"&amp;F105&amp;"_"&amp;G105&amp;"*"</f>
+        <f t="shared" ref="B105:B115" si="23">"R-WH_"&amp;G105&amp;"_"&amp;H105&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C105" s="30"/>
-      <c r="D105" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.104359857576634</v>
-      </c>
-      <c r="F105" s="30" t="s">
+      <c r="D105" s="30"/>
+      <c r="E105" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.10081773520747001</v>
+      </c>
+      <c r="G105" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G105" s="30" t="s">
+      <c r="H105" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H105" s="30" t="str">
-        <f t="shared" ref="H105:H110" si="24">"R-WH_"&amp;F105&amp;"_"&amp;G105&amp;"*"</f>
+      <c r="I105" s="30" t="str">
+        <f t="shared" ref="I105:I110" si="24">"R-WH_"&amp;G105&amp;"_"&amp;H105&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>1</v>
       </c>
@@ -14338,22 +14411,23 @@
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C106" s="31"/>
-      <c r="D106" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D106" s="31"/>
+      <c r="E106" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>8.8919330289193299E-2</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="G106" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G106" s="31" t="s">
+      <c r="H106" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H106" s="31" t="str">
+      <c r="I106" s="31" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>1</v>
       </c>
@@ -14362,22 +14436,23 @@
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C107" s="30"/>
-      <c r="D107" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D107" s="30"/>
+      <c r="E107" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.7212328767123297E-2</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G107" s="30" t="s">
+      <c r="H107" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H107" s="30" t="str">
+      <c r="I107" s="30" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>1</v>
       </c>
@@ -14386,22 +14461,23 @@
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C108" s="31"/>
-      <c r="D108" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100567418678171</v>
-      </c>
-      <c r="F108" s="31" t="s">
+      <c r="D108" s="31"/>
+      <c r="E108" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.73639647341112E-2</v>
+      </c>
+      <c r="G108" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G108" s="31" t="s">
+      <c r="H108" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H108" s="31" t="str">
+      <c r="I108" s="31" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>244</v>
       </c>
@@ -14410,22 +14486,23 @@
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C109" s="30"/>
-      <c r="D109" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.6402541005538801E-2</v>
-      </c>
-      <c r="F109" s="30" t="s">
+      <c r="D109" s="30"/>
+      <c r="E109" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.2077936363827101E-2</v>
+      </c>
+      <c r="G109" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G109" s="30" t="s">
+      <c r="H109" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H109" s="30" t="str">
-        <f>"R-WH_"&amp;F109&amp;"_"&amp;G109&amp;"*X0"</f>
+      <c r="I109" s="30" t="str">
+        <f>"R-WH_"&amp;G109&amp;"_"&amp;H109&amp;"*X0"</f>
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>1</v>
       </c>
@@ -14434,22 +14511,23 @@
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C110" s="31"/>
-      <c r="D110" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.9705277866978901E-2</v>
-      </c>
-      <c r="F110" s="31" t="s">
+      <c r="D110" s="31"/>
+      <c r="E110" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.9903120588175702E-2</v>
+      </c>
+      <c r="G110" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G110" s="31" t="s">
+      <c r="H110" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="H110" s="31" t="str">
+      <c r="I110" s="31" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>1</v>
       </c>
@@ -14458,22 +14536,23 @@
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C111" s="30"/>
-      <c r="D111" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8388567987470399E-2</v>
-      </c>
-      <c r="F111" s="30" t="s">
+      <c r="D111" s="30"/>
+      <c r="E111" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.9806776874505597E-2</v>
+      </c>
+      <c r="G111" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G111" s="30" t="s">
+      <c r="H111" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H111" s="30" t="str">
-        <f>"R-WH_"&amp;F110&amp;"_"&amp;G111&amp;"*"</f>
+      <c r="I111" s="30" t="str">
+        <f>"R-WH_"&amp;G110&amp;"_"&amp;H111&amp;"*"</f>
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>1</v>
       </c>
@@ -14482,22 +14561,23 @@
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C112" s="31"/>
-      <c r="D112" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D112" s="31"/>
+      <c r="E112" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.8944308925102102E-2</v>
       </c>
-      <c r="F112" s="31" t="s">
+      <c r="G112" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G112" s="31" t="s">
+      <c r="H112" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H112" s="31" t="str">
-        <f t="shared" ref="H112:H116" si="25">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+      <c r="I112" s="31" t="str">
+        <f t="shared" ref="I112:I116" si="25">"R-WH_"&amp;G112&amp;"_"&amp;H112&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>1</v>
       </c>
@@ -14506,22 +14586,23 @@
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C113" s="30"/>
-      <c r="D113" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9040638752358897E-2</v>
-      </c>
-      <c r="F113" s="30" t="s">
+      <c r="D113" s="30"/>
+      <c r="E113" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.7147241043066198E-2</v>
+      </c>
+      <c r="G113" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G113" s="30" t="s">
+      <c r="H113" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H113" s="30" t="str">
+      <c r="I113" s="30" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>1</v>
       </c>
@@ -14530,22 +14611,23 @@
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C114" s="31"/>
-      <c r="D114" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8778139627583307E-2</v>
-      </c>
-      <c r="F114" s="31" t="s">
+      <c r="D114" s="31"/>
+      <c r="E114" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.6620869969995597E-2</v>
+      </c>
+      <c r="G114" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G114" s="31" t="s">
+      <c r="H114" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H114" s="31" t="str">
+      <c r="I114" s="31" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>1</v>
       </c>
@@ -14554,46 +14636,48 @@
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C115" s="30"/>
-      <c r="D115" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D115" s="30"/>
+      <c r="E115" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.8794584261943399E-3</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="G115" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G115" s="30" t="s">
+      <c r="H115" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H115" s="30" t="str">
+      <c r="I115" s="30" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B116" s="31" t="str">
-        <f>"R-WH_"&amp;F116&amp;"_"&amp;G116&amp;"*"</f>
+        <f>"R-WH_"&amp;G116&amp;"_"&amp;H116&amp;"*"</f>
         <v>R-WH_Att_SOL*</v>
       </c>
       <c r="C116" s="31"/>
-      <c r="D116" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.220198275095671</v>
-      </c>
-      <c r="F116" s="31" t="s">
+      <c r="D116" s="31"/>
+      <c r="E116" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.21413130493478699</v>
+      </c>
+      <c r="G116" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G116" s="31" t="s">
+      <c r="H116" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="H116" s="31" t="str">
+      <c r="I116" s="31" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
@@ -14604,32 +14688,34 @@
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
-    </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I117" s="28"/>
+    </row>
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B118" s="30" t="str">
-        <f t="shared" ref="B118:B128" si="26">"R-WH_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
+        <f t="shared" ref="B118:B128" si="26">"R-WH_"&amp;G118&amp;"_"&amp;H118&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C118" s="30"/>
-      <c r="D118" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.2518315131287606E-2</v>
-      </c>
-      <c r="F118" s="30" t="s">
+      <c r="D118" s="30"/>
+      <c r="E118" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.0651721487066402E-2</v>
+      </c>
+      <c r="G118" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="H118" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H118" s="30" t="str">
-        <f t="shared" ref="H118:H123" si="27">"R-WH_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
+      <c r="I118" s="30" t="str">
+        <f t="shared" ref="I118:I123" si="27">"R-WH_"&amp;G118&amp;"_"&amp;H118&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>1</v>
       </c>
@@ -14638,22 +14724,23 @@
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C119" s="31"/>
-      <c r="D119" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D119" s="31"/>
+      <c r="E119" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.2328767123287703E-2</v>
       </c>
-      <c r="F119" s="31" t="s">
+      <c r="G119" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G119" s="31" t="s">
+      <c r="H119" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="H119" s="31" t="str">
+      <c r="I119" s="31" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>1</v>
       </c>
@@ -14662,22 +14749,23 @@
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C120" s="30"/>
-      <c r="D120" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D120" s="30"/>
+      <c r="E120" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.7947345890410997E-2</v>
       </c>
-      <c r="F120" s="30" t="s">
+      <c r="G120" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G120" s="30" t="s">
+      <c r="H120" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H120" s="30" t="str">
+      <c r="I120" s="30" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>1</v>
       </c>
@@ -14686,22 +14774,23 @@
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C121" s="31"/>
-      <c r="D121" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8787509731139299E-2</v>
-      </c>
-      <c r="F121" s="31" t="s">
+      <c r="D121" s="31"/>
+      <c r="E121" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.7402586104361395E-2</v>
+      </c>
+      <c r="G121" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G121" s="31" t="s">
+      <c r="H121" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H121" s="31" t="str">
+      <c r="I121" s="31" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>244</v>
       </c>
@@ -14710,22 +14799,23 @@
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C122" s="30"/>
-      <c r="D122" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.65144570452133E-2</v>
-      </c>
-      <c r="F122" s="30" t="s">
+      <c r="D122" s="30"/>
+      <c r="E122" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.4735473424353099E-2</v>
+      </c>
+      <c r="G122" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G122" s="30" t="s">
+      <c r="H122" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H122" s="30" t="str">
-        <f>"R-WH_"&amp;F122&amp;"_"&amp;G122&amp;"*X0"</f>
+      <c r="I122" s="30" t="str">
+        <f>"R-WH_"&amp;G122&amp;"_"&amp;H122&amp;"*X0"</f>
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>1</v>
       </c>
@@ -14734,22 +14824,23 @@
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C123" s="31"/>
-      <c r="D123" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.3657823067608502E-2</v>
-      </c>
-      <c r="F123" s="31" t="s">
+      <c r="D123" s="31"/>
+      <c r="E123" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.37114750791833E-2</v>
+      </c>
+      <c r="G123" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G123" s="31" t="s">
+      <c r="H123" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="H123" s="31" t="str">
+      <c r="I123" s="31" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>1</v>
       </c>
@@ -14758,22 +14849,23 @@
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C124" s="30"/>
-      <c r="D124" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6985228618266699E-2</v>
-      </c>
-      <c r="F124" s="30" t="s">
+      <c r="D124" s="30"/>
+      <c r="E124" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.2554933846820402E-2</v>
+      </c>
+      <c r="G124" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G124" s="30" t="s">
+      <c r="H124" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H124" s="30" t="str">
-        <f>"R-WH_"&amp;F123&amp;"_"&amp;G124&amp;"*"</f>
+      <c r="I124" s="30" t="str">
+        <f>"R-WH_"&amp;G123&amp;"_"&amp;H124&amp;"*"</f>
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>1</v>
       </c>
@@ -14782,22 +14874,23 @@
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C125" s="31"/>
-      <c r="D125" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.36315789189348E-2</v>
-      </c>
-      <c r="F125" s="31" t="s">
+      <c r="D125" s="31"/>
+      <c r="E125" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.3589745043839899E-2</v>
+      </c>
+      <c r="G125" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G125" s="31" t="s">
+      <c r="H125" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H125" s="31" t="str">
-        <f t="shared" ref="H125:H129" si="28">"R-WH_"&amp;F125&amp;"_"&amp;G125&amp;"*"</f>
+      <c r="I125" s="31" t="str">
+        <f t="shared" ref="I125:I129" si="28">"R-WH_"&amp;G125&amp;"_"&amp;H125&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>1</v>
       </c>
@@ -14806,22 +14899,23 @@
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C126" s="30"/>
-      <c r="D126" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H126,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4737576657325098E-2</v>
-      </c>
-      <c r="F126" s="30" t="s">
+      <c r="D126" s="30"/>
+      <c r="E126" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I126,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.3752307505030202E-2</v>
+      </c>
+      <c r="G126" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G126" s="30" t="s">
+      <c r="H126" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H126" s="30" t="str">
+      <c r="I126" s="30" t="str">
         <f t="shared" si="28"/>
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>1</v>
       </c>
@@ -14830,22 +14924,23 @@
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C127" s="31"/>
-      <c r="D127" s="54">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.7798878941989297E-2</v>
-      </c>
-      <c r="F127" s="31" t="s">
+      <c r="D127" s="31"/>
+      <c r="E127" s="54">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.6573502855343599E-2</v>
+      </c>
+      <c r="G127" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G127" s="31" t="s">
+      <c r="H127" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H127" s="31" t="str">
+      <c r="I127" s="31" t="str">
         <f t="shared" si="28"/>
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>1</v>
       </c>
@@ -14854,309 +14949,226 @@
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C128" s="30"/>
-      <c r="D128" s="53">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H128,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="D128" s="30"/>
+      <c r="E128" s="53">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I128,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.1032329364559198E-3</v>
       </c>
-      <c r="F128" s="30" t="s">
+      <c r="G128" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G128" s="30" t="s">
+      <c r="H128" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H128" s="30" t="str">
+      <c r="I128" s="30" t="str">
         <f t="shared" si="28"/>
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B129" s="31" t="str">
-        <f>"R-WH_"&amp;F129&amp;"_"&amp;G129&amp;"*"</f>
+        <f>"R-WH_"&amp;G129&amp;"_"&amp;H129&amp;"*"</f>
         <v>R-WH_Det_SOL*</v>
       </c>
       <c r="C129" s="31"/>
-      <c r="D129" s="55">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H129,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.145588074596397</v>
-      </c>
-      <c r="F129" s="31" t="s">
+      <c r="D129" s="31"/>
+      <c r="E129" s="55">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,I129,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.14341496381045399</v>
+      </c>
+      <c r="G129" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G129" s="31" t="s">
+      <c r="H129" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="H129" s="31" t="str">
+      <c r="I129" s="31" t="str">
         <f t="shared" si="28"/>
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>246</v>
       </c>
       <c r="B130" s="28"/>
       <c r="C130" s="29"/>
-      <c r="D130" s="28"/>
+      <c r="D130" s="29"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I130" s="28"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B131" s="30" t="str">
-        <f>"R-SC_"&amp;F131&amp;"_"&amp;G131&amp;"_N1"</f>
+        <f>"R-SC_"&amp;G131&amp;"_"&amp;H131&amp;"_N1"</f>
         <v>R-SC_Apt_ELC_N1</v>
       </c>
       <c r="C131" s="30"/>
-      <c r="D131" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
-      </c>
-      <c r="F131" s="30" t="s">
+      <c r="D131" s="30"/>
+      <c r="E131" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.18130269923092601</v>
+      </c>
+      <c r="G131" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G131" s="30" t="s">
+      <c r="H131" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H131" s="30" t="str">
-        <f t="shared" ref="H131:H133" si="29">"R-SH_"&amp;F131&amp;"_"&amp;G131&amp;"*X1"</f>
+      <c r="I131" s="30" t="str">
+        <f t="shared" ref="I131:I133" si="29">"R-SH_"&amp;G131&amp;"_"&amp;H131&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B132" s="31" t="str">
-        <f>"R-SC_"&amp;F132&amp;"_"&amp;G132&amp;"_N1"</f>
+        <f>"R-SC_"&amp;G132&amp;"_"&amp;H132&amp;"_N1"</f>
         <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="C132" s="31"/>
-      <c r="D132" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
-      </c>
-      <c r="F132" s="31" t="s">
+      <c r="D132" s="31"/>
+      <c r="E132" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.11404303534564</v>
+      </c>
+      <c r="G132" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G132" s="31" t="s">
+      <c r="H132" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H132" s="31" t="str">
+      <c r="I132" s="31" t="str">
         <f t="shared" si="29"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B133" s="30" t="str">
-        <f>"R-SC_"&amp;F133&amp;"_"&amp;G133&amp;"_N1"</f>
+        <f>"R-SC_"&amp;G133&amp;"_"&amp;H133&amp;"_N1"</f>
         <v>R-SC_Det_ELC_N1</v>
       </c>
       <c r="C133" s="30"/>
-      <c r="D133" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
-      </c>
-      <c r="F133" s="30" t="s">
+      <c r="D133" s="30"/>
+      <c r="E133" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.138319067250922</v>
+      </c>
+      <c r="G133" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G133" s="30" t="s">
+      <c r="H133" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H133" s="30" t="str">
+      <c r="I133" s="30" t="str">
         <f t="shared" si="29"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>247</v>
       </c>
       <c r="B134" s="28"/>
       <c r="C134" s="29"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="28"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="56"/>
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I134" s="28"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>245</v>
       </c>
       <c r="B135" s="30" t="str">
-        <f>"R-HC_"&amp;F135&amp;"_"&amp;G135&amp;"_HPN*"</f>
+        <f>"R-HC_"&amp;G135&amp;"_"&amp;H135&amp;"_HPN*"</f>
         <v>R-HC_Apt_ELC_HPN*</v>
       </c>
-      <c r="C135" s="30" t="str">
-        <f>"RSDSC_"&amp;F135</f>
-        <v>RSDSC_Apt</v>
-      </c>
-      <c r="D135" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
-      </c>
-      <c r="F135" s="30" t="s">
+      <c r="C135" s="30"/>
+      <c r="D135" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.18130269923092601</v>
+      </c>
+      <c r="G135" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G135" s="30" t="s">
+      <c r="H135" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H135" s="30" t="str">
-        <f t="shared" ref="H135:H137" si="30">"R-SH_"&amp;F135&amp;"_"&amp;G135&amp;"*X1"</f>
+      <c r="I135" s="30" t="str">
+        <f t="shared" ref="I135:I137" si="30">"R-SH_"&amp;G135&amp;"_"&amp;H135&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>245</v>
       </c>
       <c r="B136" s="31" t="str">
-        <f>"R-HC_"&amp;F136&amp;"_"&amp;G136&amp;"_HPN*"</f>
+        <f>"R-HC_"&amp;G136&amp;"_"&amp;H136&amp;"_HPN*"</f>
         <v>R-HC_Att_ELC_HPN*</v>
       </c>
-      <c r="C136" s="31" t="str">
-        <f>"RSDSC_"&amp;F136</f>
-        <v>RSDSC_Att</v>
-      </c>
-      <c r="D136" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H136,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
-      </c>
-      <c r="F136" s="31" t="s">
+      <c r="C136" s="31"/>
+      <c r="D136" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E136" s="54">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I136,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.11404303534564</v>
+      </c>
+      <c r="G136" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G136" s="31" t="s">
+      <c r="H136" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H136" s="31" t="str">
+      <c r="I136" s="31" t="str">
         <f t="shared" si="30"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>245</v>
       </c>
       <c r="B137" s="30" t="str">
-        <f>"R-HC_"&amp;F137&amp;"_"&amp;G137&amp;"_HPN*"</f>
+        <f>"R-HC_"&amp;G137&amp;"_"&amp;H137&amp;"_HPN*"</f>
         <v>R-HC_Det_ELC_HPN*</v>
       </c>
-      <c r="C137" s="30" t="str">
-        <f>"RSDSC_"&amp;F137</f>
-        <v>RSDSC_Det</v>
-      </c>
-      <c r="D137" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H137,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
-      </c>
-      <c r="F137" s="30" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="E137" s="53">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,I137,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.138319067250922</v>
+      </c>
+      <c r="G137" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G137" s="30" t="s">
+      <c r="H137" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H137" s="30" t="str">
+      <c r="I137" s="30" t="str">
         <f t="shared" si="30"/>
-        <v>R-SH_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B139" s="30" t="str">
-        <f>"R-HC_"&amp;F139&amp;"_"&amp;G139&amp;"_HPN*"</f>
-        <v>R-HC_Apt_ELC_HPN*</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="D139" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H139,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G139" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H139" s="30" t="str">
-        <f t="shared" ref="H139:H141" si="31">"R-SH_"&amp;F139&amp;"_"&amp;G139&amp;"*X1"</f>
-        <v>R-SH_Apt_ELC*X1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B140" s="31" t="str">
-        <f>"R-HC_"&amp;F140&amp;"_"&amp;G140&amp;"_HPN*"</f>
-        <v>R-HC_Att_ELC_HPN*</v>
-      </c>
-      <c r="C140" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D140" s="54">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H140,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
-      </c>
-      <c r="F140" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G140" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H140" s="31" t="str">
-        <f t="shared" si="31"/>
-        <v>R-SH_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141" s="30" t="str">
-        <f>"R-HC_"&amp;F141&amp;"_"&amp;G141&amp;"_HPN*"</f>
-        <v>R-HC_Det_ELC_HPN*</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="D141" s="53">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H141,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
-      </c>
-      <c r="F141" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G141" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H141" s="30" t="str">
-        <f t="shared" si="31"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -15481,7 +15493,7 @@
         <v>R-S*_Apt_*HET*</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -15766,7 +15778,7 @@
         <v>R-S*_Att_*HET*</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -16051,7 +16063,7 @@
         <v>R-S*_Det_*HET*</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -16438,7 +16450,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -16746,7 +16758,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -17054,7 +17066,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -17217,10 +17229,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.45255796882634303</v>
+        <v>0.42342871317737102</v>
       </c>
       <c r="M3">
-        <v>0.45255796882634303</v>
+        <v>0.42342871317737102</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -17258,10 +17270,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>6.2549233288808403E-2</v>
+        <v>5.3377456313566302E-2</v>
       </c>
       <c r="M4">
-        <v>6.2549233288808403E-2</v>
+        <v>5.3377456313566302E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -17299,10 +17311,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>1.5052975614548401</v>
+        <v>1.4717633763921301</v>
       </c>
       <c r="M5">
-        <v>1.5052975614548401</v>
+        <v>1.4717633763921301</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -17381,10 +17393,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>7.5045615347050301E-2</v>
+        <v>6.0645497051149098E-2</v>
       </c>
       <c r="M7">
-        <v>7.5045615347050301E-2</v>
+        <v>6.0645497051149098E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -17463,10 +17475,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>0.112170033510623</v>
+        <v>0.11252568167857099</v>
       </c>
       <c r="M9">
-        <v>0.112170033510623</v>
+        <v>0.11252568167857099</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -17504,10 +17516,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>0.13251764473730199</v>
+        <v>0.12792665468435199</v>
       </c>
       <c r="M10">
-        <v>0.13251764473730199</v>
+        <v>0.12792665468435199</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -17586,10 +17598,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>9.0196313138344295E-2</v>
+        <v>8.67381932124731E-2</v>
       </c>
       <c r="M12">
-        <v>9.0196313138344295E-2</v>
+        <v>8.67381932124731E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -17627,10 +17639,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>0.143159113753899</v>
+        <v>0.13976565562716001</v>
       </c>
       <c r="M13">
-        <v>0.143159113753899</v>
+        <v>0.13976565562716001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -17668,10 +17680,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>0.10316120676872401</v>
+        <v>9.9394310243560199E-2</v>
       </c>
       <c r="M14">
-        <v>0.10316120676872401</v>
+        <v>9.9394310243560199E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -17750,10 +17762,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>0.104359857576634</v>
+        <v>0.10081773520747001</v>
       </c>
       <c r="M16">
-        <v>0.104359857576634</v>
+        <v>0.10081773520747001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -17791,10 +17803,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>6.6402541005538801E-2</v>
+        <v>6.2077936363827101E-2</v>
       </c>
       <c r="M17">
-        <v>6.6402541005538801E-2</v>
+        <v>6.2077936363827101E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -17832,10 +17844,10 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>0.66825318875216799</v>
+        <v>0.66299984214582297</v>
       </c>
       <c r="M18">
-        <v>0.66825318875216799</v>
+        <v>0.66299984214582297</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -17914,10 +17926,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>5.8388567987470399E-2</v>
+        <v>4.9806776874505597E-2</v>
       </c>
       <c r="M20">
-        <v>5.8388567987470399E-2</v>
+        <v>4.9806776874505597E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -17996,10 +18008,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>6.9705277866978901E-2</v>
+        <v>6.9903120588175702E-2</v>
       </c>
       <c r="M22">
-        <v>6.9705277866978901E-2</v>
+        <v>6.9903120588175702E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -18037,10 +18049,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>0.100567418678171</v>
+        <v>9.73639647341112E-2</v>
       </c>
       <c r="M23">
-        <v>0.100567418678171</v>
+        <v>9.73639647341112E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -18119,10 +18131,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>5.9040638752358897E-2</v>
+        <v>5.7147241043066198E-2</v>
       </c>
       <c r="M25">
-        <v>5.9040638752358897E-2</v>
+        <v>5.7147241043066198E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -18160,10 +18172,10 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>0.220198275095671</v>
+        <v>0.21413130493478699</v>
       </c>
       <c r="M26">
-        <v>0.220198275095671</v>
+        <v>0.21413130493478699</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -18201,10 +18213,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>6.8778139627583307E-2</v>
+        <v>6.6620869969995597E-2</v>
       </c>
       <c r="M27">
-        <v>6.8778139627583307E-2</v>
+        <v>6.6620869969995597E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -18283,10 +18295,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>7.2518315131287606E-2</v>
+        <v>7.0651721487066402E-2</v>
       </c>
       <c r="M29">
-        <v>7.2518315131287606E-2</v>
+        <v>7.0651721487066402E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -18324,10 +18336,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>4.65144570452133E-2</v>
+        <v>4.4735473424353099E-2</v>
       </c>
       <c r="M30">
-        <v>4.65144570452133E-2</v>
+        <v>4.4735473424353099E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -18365,10 +18377,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>0.45983560612562002</v>
+        <v>0.458133885220118</v>
       </c>
       <c r="M31">
-        <v>0.45983560612562002</v>
+        <v>0.458133885220118</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -18447,10 +18459,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.6985228618266699E-2</v>
+        <v>4.2554933846820402E-2</v>
       </c>
       <c r="M33">
-        <v>4.6985228618266699E-2</v>
+        <v>4.2554933846820402E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -18529,10 +18541,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>5.3657823067608502E-2</v>
+        <v>5.37114750791833E-2</v>
       </c>
       <c r="M35">
-        <v>5.3657823067608502E-2</v>
+        <v>5.37114750791833E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -18570,10 +18582,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>6.8787509731139299E-2</v>
+        <v>6.7402586104361395E-2</v>
       </c>
       <c r="M36">
-        <v>6.8787509731139299E-2</v>
+        <v>6.7402586104361395E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -18611,10 +18623,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>2.36315789189348E-2</v>
+        <v>2.3589745043839899E-2</v>
       </c>
       <c r="M37">
-        <v>2.36315789189348E-2</v>
+        <v>2.3589745043839899E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -18652,10 +18664,10 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>4.4737576657325098E-2</v>
+        <v>4.3752307505030202E-2</v>
       </c>
       <c r="M38">
-        <v>4.4737576657325098E-2</v>
+        <v>4.3752307505030202E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -18666,7 +18678,7 @@
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
         <v>131</v>
@@ -18693,10 +18705,10 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>0.145588074596397</v>
+        <v>0.14341496381045399</v>
       </c>
       <c r="M39">
-        <v>0.145588074596397</v>
+        <v>0.14341496381045399</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -18734,10 +18746,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
       <c r="M40">
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18833,10 +18845,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="M2">
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -18874,10 +18886,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="M3">
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -18915,10 +18927,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="M4">
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -18956,10 +18968,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="M5">
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -18997,10 +19009,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="M6">
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -19038,10 +19050,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="M7">
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -19079,10 +19091,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="M8">
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -19120,10 +19132,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="M9">
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -19161,10 +19173,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="M10">
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -19202,10 +19214,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="M11">
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -19243,10 +19255,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="M12">
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -19284,10 +19296,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="M13">
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -19325,10 +19337,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="M14">
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -19366,10 +19378,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="M15">
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -19407,10 +19419,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="M16">
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -19448,10 +19460,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="M17">
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -19503,7 +19515,7 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -19530,10 +19542,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="M19">
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -19544,7 +19556,7 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -19571,10 +19583,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="M20">
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -19585,7 +19597,7 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -19612,10 +19624,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="M21">
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -19653,10 +19665,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="M22">
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -19667,7 +19679,7 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -19694,10 +19706,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="M23">
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -19708,7 +19720,7 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -19735,10 +19747,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="M24">
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -19749,7 +19761,7 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -19776,10 +19788,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="M25">
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -19858,10 +19870,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="M27">
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -19899,10 +19911,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="M28">
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -19940,10 +19952,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="M29">
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -19995,7 +20007,7 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
         <v>131</v>
@@ -20022,10 +20034,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="M31">
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -20036,7 +20048,7 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -20063,10 +20075,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="M32">
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -20077,7 +20089,7 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D33" t="s">
         <v>131</v>
@@ -20104,10 +20116,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="M33">
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -20145,10 +20157,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="M34">
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -20159,7 +20171,7 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
         <v>131</v>
@@ -20186,10 +20198,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="M35">
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -20200,7 +20212,7 @@
         <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
         <v>131</v>
@@ -20227,10 +20239,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="M36">
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -20241,7 +20253,7 @@
         <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
         <v>131</v>
@@ -20268,10 +20280,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="M37">
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
     </row>
   </sheetData>
